--- a/Code/Results/Cases/Case_0_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,73 +456,79 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_32/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.006741581665247409</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.01391453488668404</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.459786294415551</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.891798929891849</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007606070724635465</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.43567210894625</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>5.991013615333884</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.5221394189406858</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.006952850445401282</v>
+      </c>
+      <c r="D3">
+        <v>0.01488152983508861</v>
+      </c>
+      <c r="E3">
+        <v>1.242453526021819</v>
+      </c>
+      <c r="F3">
+        <v>1.666653526532286</v>
+      </c>
+      <c r="G3">
+        <v>0.0007704807125612908</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1.265501346204474</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>5.150775683053666</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.5779647794210732</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.007089173846576813</v>
+      </c>
+      <c r="D4">
+        <v>0.01561260622539251</v>
+      </c>
+      <c r="E4">
+        <v>1.113307938208067</v>
+      </c>
+      <c r="F4">
+        <v>1.534573157415252</v>
+      </c>
+      <c r="G4">
+        <v>0.0007766542842700879</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1.165778258878007</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>4.644605591211928</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.6138930929828472</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.007146145676371063</v>
+      </c>
+      <c r="D5">
+        <v>0.01594104691714016</v>
+      </c>
+      <c r="E5">
+        <v>1.061576830603926</v>
+      </c>
+      <c r="F5">
+        <v>1.482103716396963</v>
+      </c>
+      <c r="G5">
+        <v>0.0007792012338105766</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1.12618743971008</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>4.440383533034947</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.6289243644993174</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.007155685437503223</v>
+      </c>
+      <c r="D6">
+        <v>0.01599732053853842</v>
+      </c>
+      <c r="E6">
+        <v>1.053036156532485</v>
+      </c>
+      <c r="F6">
+        <v>1.473467727824314</v>
+      </c>
+      <c r="G6">
+        <v>0.0007796261230109225</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1.11967257927796</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>4.406585297729578</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.6314431841038246</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.007089936724145929</v>
+      </c>
+      <c r="D7">
+        <v>0.01561691702152324</v>
+      </c>
+      <c r="E7">
+        <v>1.112606869072522</v>
+      </c>
+      <c r="F7">
+        <v>1.533860293711768</v>
+      </c>
+      <c r="G7">
+        <v>0.0007766885030832932</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1.165240269939403</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>4.641843594583634</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.6140942611014175</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.0068128934055256</v>
+      </c>
+      <c r="D8">
+        <v>0.01421685353596658</v>
+      </c>
+      <c r="E8">
+        <v>1.383839253494259</v>
+      </c>
+      <c r="F8">
+        <v>1.812765998648104</v>
+      </c>
+      <c r="G8">
+        <v>0.000763990504132759</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1.375912651050172</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>5.699020518755106</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.5410292645469976</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.006336428749580847</v>
+      </c>
+      <c r="D9">
+        <v>0.01277695738957974</v>
+      </c>
+      <c r="E9">
+        <v>1.959683892763735</v>
+      </c>
+      <c r="F9">
+        <v>2.418724683768431</v>
+      </c>
+      <c r="G9">
+        <v>0.0007398028185762496</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1.834678924146687</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>7.870509148765848</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.4121540842020899</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.006054619393832894</v>
+      </c>
+      <c r="D10">
+        <v>0.01288649214671622</v>
+      </c>
+      <c r="E10">
+        <v>2.426460488217572</v>
+      </c>
+      <c r="F10">
+        <v>2.916717638408073</v>
+      </c>
+      <c r="G10">
+        <v>0.0007221868916461829</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2.212567490163266</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>9.560915220434538</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.3284045536557656</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.005950383363977352</v>
+      </c>
+      <c r="D11">
+        <v>0.01330018831970747</v>
+      </c>
+      <c r="E11">
+        <v>2.653297886597073</v>
+      </c>
+      <c r="F11">
+        <v>3.159470326189108</v>
+      </c>
+      <c r="G11">
+        <v>0.0007141273911655127</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2.397015931514247</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>10.3604517437779</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.2932882500497662</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.005915447021997977</v>
+      </c>
+      <c r="D12">
+        <v>0.01352132083863467</v>
+      </c>
+      <c r="E12">
+        <v>2.74182876572651</v>
+      </c>
+      <c r="F12">
+        <v>3.254224365584861</v>
+      </c>
+      <c r="G12">
+        <v>0.0007110605111511689</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>2.46905214424433</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>10.66865080499645</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.2804839165094712</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.005922748348318407</v>
+      </c>
+      <c r="D13">
+        <v>0.01347060163278968</v>
+      </c>
+      <c r="E13">
+        <v>2.722634743834362</v>
+      </c>
+      <c r="F13">
+        <v>3.233682492338005</v>
+      </c>
+      <c r="G13">
+        <v>0.0007117218346925838</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2.453433431462344</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>10.60201408672361</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.2832184327569465</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.005947410749548965</v>
+      </c>
+      <c r="D14">
+        <v>0.01331700827553917</v>
+      </c>
+      <c r="E14">
+        <v>2.660524981869756</v>
+      </c>
+      <c r="F14">
+        <v>3.167205871677737</v>
+      </c>
+      <c r="G14">
+        <v>0.0007138754303120013</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2.402896005136313</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>10.38569185888042</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.2922245204683129</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.005963146043919565</v>
+      </c>
+      <c r="D15">
+        <v>0.01323173698354907</v>
+      </c>
+      <c r="E15">
+        <v>2.622842392525143</v>
+      </c>
+      <c r="F15">
+        <v>3.126871997973865</v>
+      </c>
+      <c r="G15">
+        <v>0.0007151923486549754</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>2.372238375125704</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>10.25393022697693</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.2978074245378366</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.006061999347251046</v>
+      </c>
+      <c r="D16">
+        <v>0.01286775032876619</v>
+      </c>
+      <c r="E16">
+        <v>2.411971679419011</v>
+      </c>
+      <c r="F16">
+        <v>2.901219626012363</v>
+      </c>
+      <c r="G16">
+        <v>0.0007227120036907841</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>2.200796945210215</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>9.50936239490153</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.3307647149852109</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.006129455693269392</v>
+      </c>
+      <c r="D17">
+        <v>0.01274540701992422</v>
+      </c>
+      <c r="E17">
+        <v>2.286672087892526</v>
+      </c>
+      <c r="F17">
+        <v>2.767264474290897</v>
+      </c>
+      <c r="G17">
+        <v>0.0007273079228332968</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2.099086352671307</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>9.061094248777806</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.3517886186527264</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.006170428416330864</v>
+      </c>
+      <c r="D18">
+        <v>0.01270841088589236</v>
+      </c>
+      <c r="E18">
+        <v>2.21592823513808</v>
+      </c>
+      <c r="F18">
+        <v>2.691707996229638</v>
+      </c>
+      <c r="G18">
+        <v>0.0007299476395551592</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>2.041738701112692</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>8.806065730651028</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.3641571111416724</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.006184646367756841</v>
+      </c>
+      <c r="D19">
+        <v>0.01270129256279162</v>
+      </c>
+      <c r="E19">
+        <v>2.192188592715169</v>
+      </c>
+      <c r="F19">
+        <v>2.66636842009305</v>
+      </c>
+      <c r="G19">
+        <v>0.0007308409863580503</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>2.022509417815854</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>8.720170769318941</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.3683905307417845</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.006122043034864078</v>
+      </c>
+      <c r="D20">
+        <v>0.01275489803290597</v>
+      </c>
+      <c r="E20">
+        <v>2.299869748800717</v>
+      </c>
+      <c r="F20">
+        <v>2.781366640255243</v>
+      </c>
+      <c r="G20">
+        <v>0.0007268191205416219</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>2.109791686372603</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>9.108516181089328</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.3495215866868691</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.005940033297640923</v>
+      </c>
+      <c r="D21">
+        <v>0.01336026039296456</v>
+      </c>
+      <c r="E21">
+        <v>2.678691621183802</v>
+      </c>
+      <c r="F21">
+        <v>3.186650394384031</v>
+      </c>
+      <c r="G21">
+        <v>0.0007132433476243433</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2.417677159363905</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>10.44907413525476</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.2895652377474285</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.005848297525716362</v>
+      </c>
+      <c r="D22">
+        <v>0.01413976847896592</v>
+      </c>
+      <c r="E22">
+        <v>2.941981964294428</v>
+      </c>
+      <c r="F22">
+        <v>3.468330057656885</v>
+      </c>
+      <c r="G22">
+        <v>0.0007042785152244814</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>2.631904763314765</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>11.35752464664466</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.2532973131356009</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.005894311123846308</v>
+      </c>
+      <c r="D23">
+        <v>0.01368373718739235</v>
+      </c>
+      <c r="E23">
+        <v>2.799801883036181</v>
+      </c>
+      <c r="F23">
+        <v>3.316260867094826</v>
+      </c>
+      <c r="G23">
+        <v>0.0007090749166128625</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>2.516226916778393</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>10.86930558360029</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.2723620871609285</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.006125387550174111</v>
+      </c>
+      <c r="D24">
+        <v>0.01275050417217116</v>
+      </c>
+      <c r="E24">
+        <v>2.293899099703395</v>
+      </c>
+      <c r="F24">
+        <v>2.774986551631088</v>
+      </c>
+      <c r="G24">
+        <v>0.0007270401153777884</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>2.104948322257428</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>9.087068431932948</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.3505456395063895</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.006455797703603494</v>
+      </c>
+      <c r="D25">
+        <v>0.01299286810591482</v>
+      </c>
+      <c r="E25">
+        <v>1.797651806610745</v>
+      </c>
+      <c r="F25">
+        <v>2.246911300286015</v>
+      </c>
+      <c r="G25">
+        <v>0.0007462959532384756</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1.70447276743721</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>7.26926963860376</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.4452759188409168</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_32/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.006741581665247409</v>
+        <v>0.009569863967039183</v>
       </c>
       <c r="D2">
-        <v>0.01391453488668404</v>
+        <v>0.03546083390840238</v>
       </c>
       <c r="E2">
-        <v>1.459786294415551</v>
+        <v>0.4121594013956837</v>
       </c>
       <c r="F2">
-        <v>1.891798929891849</v>
+        <v>1.41206336127641</v>
       </c>
       <c r="G2">
-        <v>0.0007606070724635465</v>
+        <v>0.00244548472288795</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.43567210894625</v>
+        <v>1.080581683973037</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.991013615333884</v>
+        <v>2.080432984859272</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5221394189406858</v>
+        <v>1.177174712594736</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.006952850445401282</v>
+        <v>0.009571480096687068</v>
       </c>
       <c r="D3">
-        <v>0.01488152983508861</v>
+        <v>0.0361485491914042</v>
       </c>
       <c r="E3">
-        <v>1.242453526021819</v>
+        <v>0.3592342253178771</v>
       </c>
       <c r="F3">
-        <v>1.666653526532286</v>
+        <v>1.370783410753219</v>
       </c>
       <c r="G3">
-        <v>0.0007704807125612908</v>
+        <v>0.002451279747657809</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.265501346204474</v>
+        <v>1.049714448768498</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>5.150775683053666</v>
+        <v>1.865240675197413</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5779647794210732</v>
+        <v>1.197126255184985</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.007089173846576813</v>
+        <v>0.009573580223285916</v>
       </c>
       <c r="D4">
-        <v>0.01561260622539251</v>
+        <v>0.03659968260372715</v>
       </c>
       <c r="E4">
-        <v>1.113307938208067</v>
+        <v>0.3268840709148861</v>
       </c>
       <c r="F4">
-        <v>1.534573157415252</v>
+        <v>1.346620871083942</v>
       </c>
       <c r="G4">
-        <v>0.0007766542842700879</v>
+        <v>0.002455017506307526</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.165778258878007</v>
+        <v>1.03167368627544</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.644605591211928</v>
+        <v>1.733944371233804</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6138930929828472</v>
+        <v>1.20995355186049</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.007146145676371063</v>
+        <v>0.009574717321502391</v>
       </c>
       <c r="D5">
-        <v>0.01594104691714016</v>
+        <v>0.03679070794054695</v>
       </c>
       <c r="E5">
-        <v>1.061576830603926</v>
+        <v>0.3137346518927728</v>
       </c>
       <c r="F5">
-        <v>1.482103716396963</v>
+        <v>1.337068746970644</v>
       </c>
       <c r="G5">
-        <v>0.0007792012338105766</v>
+        <v>0.002456586011178187</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.12618743971008</v>
+        <v>1.024548652783253</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.440383533034947</v>
+        <v>1.680644536514933</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6289243644993174</v>
+        <v>1.21532536251649</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.007155685437503223</v>
+        <v>0.009574923209418884</v>
       </c>
       <c r="D6">
-        <v>0.01599732053853842</v>
+        <v>0.03682285930680784</v>
       </c>
       <c r="E6">
-        <v>1.053036156532485</v>
+        <v>0.3115531331079495</v>
       </c>
       <c r="F6">
-        <v>1.473467727824314</v>
+        <v>1.335500303802306</v>
       </c>
       <c r="G6">
-        <v>0.0007796261230109225</v>
+        <v>0.002456849203858105</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.11967257927796</v>
+        <v>1.023379165494376</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.406585297729578</v>
+        <v>1.671806348298958</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.6314431841038246</v>
+        <v>1.216226065583843</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.007089936724145929</v>
+        <v>0.00957359441620298</v>
       </c>
       <c r="D7">
-        <v>0.01561691702152324</v>
+        <v>0.03660222984539629</v>
       </c>
       <c r="E7">
-        <v>1.112606869072522</v>
+        <v>0.3267066016973956</v>
       </c>
       <c r="F7">
-        <v>1.533860293711768</v>
+        <v>1.346490860481879</v>
       </c>
       <c r="G7">
-        <v>0.0007766885030832932</v>
+        <v>0.002455038475955824</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.165240269939403</v>
+        <v>1.031576680950764</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.641843594583634</v>
+        <v>1.733224729511562</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6140942611014175</v>
+        <v>1.21002541321417</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0068128934055256</v>
+        <v>0.009570192789583487</v>
       </c>
       <c r="D8">
-        <v>0.01421685353596658</v>
+        <v>0.03569191962791329</v>
       </c>
       <c r="E8">
-        <v>1.383839253494259</v>
+        <v>0.3938785142110675</v>
       </c>
       <c r="F8">
-        <v>1.812765998648104</v>
+        <v>1.397582382787107</v>
       </c>
       <c r="G8">
-        <v>0.000763990504132759</v>
+        <v>0.002447445681759356</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.375912651050172</v>
+        <v>1.069747841768617</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.699020518755106</v>
+        <v>2.006058816234145</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5410292645469976</v>
+        <v>1.183933953454723</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.006336428749580847</v>
+        <v>0.009572214273973145</v>
       </c>
       <c r="D9">
-        <v>0.01277695738957974</v>
+        <v>0.03413932707388767</v>
       </c>
       <c r="E9">
-        <v>1.959683892763735</v>
+        <v>0.5269140354201909</v>
       </c>
       <c r="F9">
-        <v>2.418724683768431</v>
+        <v>1.507320337202728</v>
       </c>
       <c r="G9">
-        <v>0.0007398028185762496</v>
+        <v>0.002433973014590671</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.834678924146687</v>
+        <v>1.151958438667478</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7.870509148765848</v>
+        <v>2.547944767497199</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4121540842020899</v>
+        <v>1.137368464613598</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.006054619393832894</v>
+        <v>0.009578898274874348</v>
       </c>
       <c r="D10">
-        <v>0.01288649214671622</v>
+        <v>0.03314515474228585</v>
       </c>
       <c r="E10">
-        <v>2.426460488217572</v>
+        <v>0.6256764422754628</v>
       </c>
       <c r="F10">
-        <v>2.916717638408073</v>
+        <v>1.593994589872949</v>
       </c>
       <c r="G10">
-        <v>0.0007221868916461829</v>
+        <v>0.002424926837664534</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.212567490163266</v>
+        <v>1.217021572249308</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.560915220434538</v>
+        <v>2.950645126656752</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3284045536557656</v>
+        <v>1.105990032515255</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.005950383363977352</v>
+        <v>0.009583055221948911</v>
       </c>
       <c r="D11">
-        <v>0.01330018831970747</v>
+        <v>0.03272575303846992</v>
       </c>
       <c r="E11">
-        <v>2.653297886597073</v>
+        <v>0.6708771366755144</v>
       </c>
       <c r="F11">
-        <v>3.159470326189108</v>
+        <v>1.634789617184794</v>
       </c>
       <c r="G11">
-        <v>0.0007141273911655127</v>
+        <v>0.002420994067358662</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.397015931514247</v>
+        <v>1.247672581455973</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.3604517437779</v>
+        <v>3.134927682773366</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.2932882500497662</v>
+        <v>1.092336828122635</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.005915447021997977</v>
+        <v>0.009584789338038746</v>
       </c>
       <c r="D12">
-        <v>0.01352132083863467</v>
+        <v>0.03257175174463356</v>
       </c>
       <c r="E12">
-        <v>2.74182876572651</v>
+        <v>0.688036681242977</v>
       </c>
       <c r="F12">
-        <v>3.254224365584861</v>
+        <v>1.650438170189517</v>
       </c>
       <c r="G12">
-        <v>0.0007110605111511689</v>
+        <v>0.002419530864355726</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.46905214424433</v>
+        <v>1.259433947793227</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.66865080499645</v>
+        <v>3.204874381105071</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.2804839165094712</v>
+        <v>1.087256613740838</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.005922748348318407</v>
+        <v>0.009584408754705009</v>
       </c>
       <c r="D13">
-        <v>0.01347060163278968</v>
+        <v>0.03260470293754025</v>
       </c>
       <c r="E13">
-        <v>2.722634743834362</v>
+        <v>0.684339092485672</v>
       </c>
       <c r="F13">
-        <v>3.233682492338005</v>
+        <v>1.647059000892597</v>
       </c>
       <c r="G13">
-        <v>0.0007117218346925838</v>
+        <v>0.002419844835646345</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.453433431462344</v>
+        <v>1.256894007457291</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.60201408672361</v>
+        <v>3.189802768627942</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.2832184327569465</v>
+        <v>1.088346717242683</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.005947410749548965</v>
+        <v>0.009583194684225305</v>
       </c>
       <c r="D14">
-        <v>0.01331700827553917</v>
+        <v>0.03271298617935869</v>
       </c>
       <c r="E14">
-        <v>2.660524981869756</v>
+        <v>0.672287978793193</v>
       </c>
       <c r="F14">
-        <v>3.167205871677737</v>
+        <v>1.636072995133816</v>
       </c>
       <c r="G14">
-        <v>0.0007138754303120013</v>
+        <v>0.002420873167625444</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.402896005136313</v>
+        <v>1.248637082425688</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.38569185888042</v>
+        <v>3.140678941067847</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.2922245204683129</v>
+        <v>1.091917069113149</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.005963146043919565</v>
+        <v>0.00958247185456429</v>
       </c>
       <c r="D15">
-        <v>0.01323173698354907</v>
+        <v>0.03277994290484898</v>
       </c>
       <c r="E15">
-        <v>2.622842392525143</v>
+        <v>0.6649120388370022</v>
       </c>
       <c r="F15">
-        <v>3.126871997973865</v>
+        <v>1.629369958249583</v>
       </c>
       <c r="G15">
-        <v>0.0007151923486549754</v>
+        <v>0.002421506438547549</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.372238375125704</v>
+        <v>1.243599687344357</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.25393022697693</v>
+        <v>3.110610567995536</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.2978074245378366</v>
+        <v>1.094115747697693</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.006061999347251046</v>
+        <v>0.009578649014926555</v>
       </c>
       <c r="D16">
-        <v>0.01286775032876619</v>
+        <v>0.03317323259469873</v>
       </c>
       <c r="E16">
-        <v>2.411971679419011</v>
+        <v>0.6227282855764145</v>
       </c>
       <c r="F16">
-        <v>2.901219626012363</v>
+        <v>1.591356364595185</v>
       </c>
       <c r="G16">
-        <v>0.0007227120036907841</v>
+        <v>0.002425187508625593</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.200796945210215</v>
+        <v>1.215039910956833</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.50936239490153</v>
+        <v>2.938624301027346</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3307647149852109</v>
+        <v>1.106894853602821</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.006129455693269392</v>
+        <v>0.009576589221005349</v>
       </c>
       <c r="D17">
-        <v>0.01274540701992422</v>
+        <v>0.03342298276072597</v>
       </c>
       <c r="E17">
-        <v>2.286672087892526</v>
+        <v>0.596922523592994</v>
       </c>
       <c r="F17">
-        <v>2.767264474290897</v>
+        <v>1.568388970643639</v>
       </c>
       <c r="G17">
-        <v>0.0007273079228332968</v>
+        <v>0.002427492314010498</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.099086352671307</v>
+        <v>1.197791353389775</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.061094248777806</v>
+        <v>2.833400130682264</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3517886186527264</v>
+        <v>1.114893938114285</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.006170428416330864</v>
+        <v>0.009575509565916462</v>
       </c>
       <c r="D18">
-        <v>0.01270841088589236</v>
+        <v>0.03356971897520111</v>
       </c>
       <c r="E18">
-        <v>2.21592823513808</v>
+        <v>0.5821052165165668</v>
       </c>
       <c r="F18">
-        <v>2.691707996229638</v>
+        <v>1.555307116985858</v>
       </c>
       <c r="G18">
-        <v>0.0007299476395551592</v>
+        <v>0.002428835154130683</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.041738701112692</v>
+        <v>1.187969413167821</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.806065730651028</v>
+        <v>2.772980409645641</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3641571111416724</v>
+        <v>1.119553211255683</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.006184646367756841</v>
+        <v>0.009575162086498779</v>
       </c>
       <c r="D19">
-        <v>0.01270129256279162</v>
+        <v>0.03361992865304586</v>
       </c>
       <c r="E19">
-        <v>2.192188592715169</v>
+        <v>0.577092595301778</v>
       </c>
       <c r="F19">
-        <v>2.66636842009305</v>
+        <v>1.550899759543995</v>
       </c>
       <c r="G19">
-        <v>0.0007308409863580503</v>
+        <v>0.002429292772319834</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.022509417815854</v>
+        <v>1.184660781056152</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.720170769318941</v>
+        <v>2.752540748650404</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3683905307417845</v>
+        <v>1.12114077345611</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.006122043034864078</v>
+        <v>0.009576797618919386</v>
       </c>
       <c r="D20">
-        <v>0.01275489803290597</v>
+        <v>0.03339607631976094</v>
       </c>
       <c r="E20">
-        <v>2.299869748800717</v>
+        <v>0.5996669265995962</v>
       </c>
       <c r="F20">
-        <v>2.781366640255243</v>
+        <v>1.57082057392887</v>
       </c>
       <c r="G20">
-        <v>0.0007268191205416219</v>
+        <v>0.00242724518704896</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.109791686372603</v>
+        <v>1.199617226755734</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.108516181089328</v>
+        <v>2.844590779387772</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3495215866868691</v>
+        <v>1.114036371848309</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.005940033297640923</v>
+        <v>0.009583546947649069</v>
       </c>
       <c r="D21">
-        <v>0.01336026039296456</v>
+        <v>0.03268104928158166</v>
       </c>
       <c r="E21">
-        <v>2.678691621183802</v>
+        <v>0.6758264851974616</v>
       </c>
       <c r="F21">
-        <v>3.186650394384031</v>
+        <v>1.639294382430847</v>
       </c>
       <c r="G21">
-        <v>0.0007132433476243433</v>
+        <v>0.002420570416009292</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.417677159363905</v>
+        <v>1.251058124284711</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.44907413525476</v>
+        <v>3.155103331752343</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.2895652377474285</v>
+        <v>1.090865923464046</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.005848297525716362</v>
+        <v>0.009588890491293967</v>
       </c>
       <c r="D22">
-        <v>0.01413976847896592</v>
+        <v>0.03224185980284489</v>
       </c>
       <c r="E22">
-        <v>2.941981964294428</v>
+        <v>0.7258537200951736</v>
       </c>
       <c r="F22">
-        <v>3.468330057656885</v>
+        <v>1.685215678523321</v>
       </c>
       <c r="G22">
-        <v>0.0007042785152244814</v>
+        <v>0.002416359836449542</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.631904763314765</v>
+        <v>1.285579670786547</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.35752464664466</v>
+        <v>3.35899352957739</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.2532973131356009</v>
+        <v>1.076247355876298</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.005894311123846308</v>
+        <v>0.009585953296632255</v>
       </c>
       <c r="D23">
-        <v>0.01368373718739235</v>
+        <v>0.03247365905476229</v>
       </c>
       <c r="E23">
-        <v>2.799801883036181</v>
+        <v>0.69912887781949</v>
       </c>
       <c r="F23">
-        <v>3.316260867094826</v>
+        <v>1.660598295496612</v>
       </c>
       <c r="G23">
-        <v>0.0007090749166128625</v>
+        <v>0.002418593272573866</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.516226916778393</v>
+        <v>1.267071335578734</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.86930558360029</v>
+        <v>3.250084386577157</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.2723620871609285</v>
+        <v>1.08400133236475</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.006125387550174111</v>
+        <v>0.009576703076277227</v>
       </c>
       <c r="D24">
-        <v>0.01275050417217116</v>
+        <v>0.03340823091188128</v>
       </c>
       <c r="E24">
-        <v>2.293899099703395</v>
+        <v>0.5984261238202464</v>
       </c>
       <c r="F24">
-        <v>2.774986551631088</v>
+        <v>1.569720865104244</v>
       </c>
       <c r="G24">
-        <v>0.0007270401153777884</v>
+        <v>0.002427356857871574</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.104948322257428</v>
+        <v>1.198791455333236</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.087068431932948</v>
+        <v>2.839531253764051</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3505456395063895</v>
+        <v>1.114423889184808</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.006455797703603494</v>
+        <v>0.009570748708723542</v>
       </c>
       <c r="D25">
-        <v>0.01299286810591482</v>
+        <v>0.03453396595071112</v>
       </c>
       <c r="E25">
-        <v>1.797651806610745</v>
+        <v>0.4907613266887978</v>
       </c>
       <c r="F25">
-        <v>2.246911300286015</v>
+        <v>1.476587699882273</v>
       </c>
       <c r="G25">
-        <v>0.0007462959532384756</v>
+        <v>0.002437467242670799</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.70447276743721</v>
+        <v>1.128912452485096</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>7.26926963860376</v>
+        <v>2.400575603926427</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4452759188409168</v>
+        <v>1.149470273948651</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_32/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.009569863967039183</v>
+        <v>0.006741581665018259</v>
       </c>
       <c r="D2">
-        <v>0.03546083390840238</v>
+        <v>0.01391453488658101</v>
       </c>
       <c r="E2">
-        <v>0.4121594013956837</v>
+        <v>1.459786294415551</v>
       </c>
       <c r="F2">
-        <v>1.41206336127641</v>
+        <v>1.891798929891849</v>
       </c>
       <c r="G2">
-        <v>0.00244548472288795</v>
+        <v>0.0007606070724692086</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.080581683973037</v>
+        <v>1.435672108946264</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.080432984859272</v>
+        <v>5.991013615333827</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.177174712594736</v>
+        <v>0.5221394189407285</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.009571480096687068</v>
+        <v>0.006952850445397729</v>
       </c>
       <c r="D3">
-        <v>0.0361485491914042</v>
+        <v>0.01488152983519342</v>
       </c>
       <c r="E3">
-        <v>0.3592342253178771</v>
+        <v>1.242453526021876</v>
       </c>
       <c r="F3">
-        <v>1.370783410753219</v>
+        <v>1.666653526532286</v>
       </c>
       <c r="G3">
-        <v>0.002451279747657809</v>
+        <v>0.0007704807125317875</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.049714448768498</v>
+        <v>1.265501346204488</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.865240675197413</v>
+        <v>5.150775683053723</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.197126255184985</v>
+        <v>0.5779647794210661</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.009573580223285916</v>
+        <v>0.007089173846399177</v>
       </c>
       <c r="D4">
-        <v>0.03659968260372715</v>
+        <v>0.01561260622540495</v>
       </c>
       <c r="E4">
-        <v>0.3268840709148861</v>
+        <v>1.113307938208038</v>
       </c>
       <c r="F4">
-        <v>1.346620871083942</v>
+        <v>1.534573157415238</v>
       </c>
       <c r="G4">
-        <v>0.002455017506307526</v>
+        <v>0.0007766542842546755</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.03167368627544</v>
+        <v>1.165778258878007</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.733944371233804</v>
+        <v>4.644605591211814</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.20995355186049</v>
+        <v>0.6138930929827993</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.009574717321502391</v>
+        <v>0.007146145676372839</v>
       </c>
       <c r="D5">
-        <v>0.03679070794054695</v>
+        <v>0.0159410469171366</v>
       </c>
       <c r="E5">
-        <v>0.3137346518927728</v>
+        <v>1.061576830603897</v>
       </c>
       <c r="F5">
-        <v>1.337068746970644</v>
+        <v>1.482103716396963</v>
       </c>
       <c r="G5">
-        <v>0.002456586011178187</v>
+        <v>0.0007792012338549704</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.024548652783253</v>
+        <v>1.12618743971008</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.680644536514933</v>
+        <v>4.440383533035003</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.21532536251649</v>
+        <v>0.6289243644993228</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.009574923209418884</v>
+        <v>0.007155685437492565</v>
       </c>
       <c r="D6">
-        <v>0.03682285930680784</v>
+        <v>0.01599732053835901</v>
       </c>
       <c r="E6">
-        <v>0.3115531331079495</v>
+        <v>1.053036156532499</v>
       </c>
       <c r="F6">
-        <v>1.335500303802306</v>
+        <v>1.473467727824314</v>
       </c>
       <c r="G6">
-        <v>0.002456849203858105</v>
+        <v>0.0007796261230656429</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.023379165494376</v>
+        <v>1.119672579277946</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.671806348298958</v>
+        <v>4.406585297729578</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.216226065583843</v>
+        <v>0.631443184103869</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.00957359441620298</v>
+        <v>0.007089936724145929</v>
       </c>
       <c r="D7">
-        <v>0.03660222984539629</v>
+        <v>0.01561691702141488</v>
       </c>
       <c r="E7">
-        <v>0.3267066016973956</v>
+        <v>1.112606869072494</v>
       </c>
       <c r="F7">
-        <v>1.346490860481879</v>
+        <v>1.533860293711768</v>
       </c>
       <c r="G7">
-        <v>0.002455038475955824</v>
+        <v>0.0007766885030840415</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.031576680950764</v>
+        <v>1.165240269939417</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.733224729511562</v>
+        <v>4.641843594583577</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.21002541321417</v>
+        <v>0.6140942611014193</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.009570192789583487</v>
+        <v>0.006812893405262699</v>
       </c>
       <c r="D8">
-        <v>0.03569191962791329</v>
+        <v>0.01421685353586355</v>
       </c>
       <c r="E8">
-        <v>0.3938785142110675</v>
+        <v>1.383839253494259</v>
       </c>
       <c r="F8">
-        <v>1.397582382787107</v>
+        <v>1.812765998648104</v>
       </c>
       <c r="G8">
-        <v>0.002447445681759356</v>
+        <v>0.0007639905040544882</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.069747841768617</v>
+        <v>1.375912651050186</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.006058816234145</v>
+        <v>5.699020518755219</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.183933953454723</v>
+        <v>0.5410292645470491</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.009572214273973145</v>
+        <v>0.00633642874937479</v>
       </c>
       <c r="D9">
-        <v>0.03413932707388767</v>
+        <v>0.01277695738915341</v>
       </c>
       <c r="E9">
-        <v>0.5269140354201909</v>
+        <v>1.959683892763636</v>
       </c>
       <c r="F9">
-        <v>1.507320337202728</v>
+        <v>2.418724683768389</v>
       </c>
       <c r="G9">
-        <v>0.002433973014590671</v>
+        <v>0.0007398028185236401</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.151958438667478</v>
+        <v>1.834678924146658</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.547944767497199</v>
+        <v>7.87050914876562</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.137368464613598</v>
+        <v>0.4121540842021076</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.009578898274874348</v>
+        <v>0.006054619394056715</v>
       </c>
       <c r="D10">
-        <v>0.03314515474228585</v>
+        <v>0.01288649214660254</v>
       </c>
       <c r="E10">
-        <v>0.6256764422754628</v>
+        <v>2.426460488217586</v>
       </c>
       <c r="F10">
-        <v>1.593994589872949</v>
+        <v>2.916717638408073</v>
       </c>
       <c r="G10">
-        <v>0.002424926837664534</v>
+        <v>0.0007221868916471794</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.217021572249308</v>
+        <v>2.212567490163252</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.950645126656752</v>
+        <v>9.560915220434481</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.105990032515255</v>
+        <v>0.3284045536557194</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.009583055221948911</v>
+        <v>0.005950383364009326</v>
       </c>
       <c r="D11">
-        <v>0.03272575303846992</v>
+        <v>0.01330018831959023</v>
       </c>
       <c r="E11">
-        <v>0.6708771366755144</v>
+        <v>2.65329788659713</v>
       </c>
       <c r="F11">
-        <v>1.634789617184794</v>
+        <v>3.159470326189108</v>
       </c>
       <c r="G11">
-        <v>0.002420994067358662</v>
+        <v>0.0007141273911119509</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.247672581455973</v>
+        <v>2.397015931514247</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.134927682773366</v>
+        <v>10.3604517437779</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.092336828122635</v>
+        <v>0.2932882500497129</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.009584789338038746</v>
+        <v>0.005915447021994424</v>
       </c>
       <c r="D12">
-        <v>0.03257175174463356</v>
+        <v>0.01352132083864532</v>
       </c>
       <c r="E12">
-        <v>0.688036681242977</v>
+        <v>2.741828765726552</v>
       </c>
       <c r="F12">
-        <v>1.650438170189517</v>
+        <v>3.254224365584861</v>
       </c>
       <c r="G12">
-        <v>0.002419530864355726</v>
+        <v>0.0007110605111507154</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.259433947793227</v>
+        <v>2.469052144244344</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.204874381105071</v>
+        <v>10.6686508049965</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.087256613740838</v>
+        <v>0.2804839165094108</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.009584408754705009</v>
+        <v>0.005922748347600759</v>
       </c>
       <c r="D13">
-        <v>0.03260470293754025</v>
+        <v>0.01347060163268665</v>
       </c>
       <c r="E13">
-        <v>0.684339092485672</v>
+        <v>2.722634743834362</v>
       </c>
       <c r="F13">
-        <v>1.647059000892597</v>
+        <v>3.233682492338062</v>
       </c>
       <c r="G13">
-        <v>0.002419844835646345</v>
+        <v>0.0007117218347548748</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.256894007457291</v>
+        <v>2.453433431462358</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.189802768627942</v>
+        <v>10.60201408672373</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.088346717242683</v>
+        <v>0.2832184327569358</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.009583194684225305</v>
+        <v>0.00594741074903915</v>
       </c>
       <c r="D14">
-        <v>0.03271298617935869</v>
+        <v>0.01331700827553917</v>
       </c>
       <c r="E14">
-        <v>0.672287978793193</v>
+        <v>2.660524981869756</v>
       </c>
       <c r="F14">
-        <v>1.636072995133816</v>
+        <v>3.167205871677794</v>
       </c>
       <c r="G14">
-        <v>0.002420873167625444</v>
+        <v>0.0007138754304328529</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.248637082425688</v>
+        <v>2.402896005136341</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.140678941067847</v>
+        <v>10.38569185888042</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.091917069113149</v>
+        <v>0.2922245204682916</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.00958247185456429</v>
+        <v>0.005963146043919565</v>
       </c>
       <c r="D15">
-        <v>0.03277994290484898</v>
+        <v>0.01323173698379065</v>
       </c>
       <c r="E15">
-        <v>0.6649120388370022</v>
+        <v>2.622842392525129</v>
       </c>
       <c r="F15">
-        <v>1.629369958249583</v>
+        <v>3.126871997973865</v>
       </c>
       <c r="G15">
-        <v>0.002421506438547549</v>
+        <v>0.0007151923487169258</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.243599687344357</v>
+        <v>2.372238375125704</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.110610567995536</v>
+        <v>10.25393022697693</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.094115747697693</v>
+        <v>0.297807424537897</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.009578649014926555</v>
+        <v>0.006061999347480196</v>
       </c>
       <c r="D16">
-        <v>0.03317323259469873</v>
+        <v>0.01286775032864185</v>
       </c>
       <c r="E16">
-        <v>0.6227282855764145</v>
+        <v>2.411971679419011</v>
       </c>
       <c r="F16">
-        <v>1.591356364595185</v>
+        <v>2.901219626012391</v>
       </c>
       <c r="G16">
-        <v>0.002425187508625593</v>
+        <v>0.0007227120037438528</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.215039910956833</v>
+        <v>2.200796945210229</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.938624301027346</v>
+        <v>9.509362394901586</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.106894853602821</v>
+        <v>0.3307647149852002</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.009576589221005349</v>
+        <v>0.006129455693034913</v>
       </c>
       <c r="D17">
-        <v>0.03342298276072597</v>
+        <v>0.01274540701992066</v>
       </c>
       <c r="E17">
-        <v>0.596922523592994</v>
+        <v>2.286672087892555</v>
       </c>
       <c r="F17">
-        <v>1.568388970643639</v>
+        <v>2.767264474290926</v>
       </c>
       <c r="G17">
-        <v>0.002427492314010498</v>
+        <v>0.0007273079228920214</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.197791353389775</v>
+        <v>2.099086352671335</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.833400130682264</v>
+        <v>9.061094248777806</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.114893938114285</v>
+        <v>0.3517886186527264</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.009575509565916462</v>
+        <v>0.006170428416099938</v>
       </c>
       <c r="D18">
-        <v>0.03356971897520111</v>
+        <v>0.01270841088601671</v>
       </c>
       <c r="E18">
-        <v>0.5821052165165668</v>
+        <v>2.215928235138108</v>
       </c>
       <c r="F18">
-        <v>1.555307116985858</v>
+        <v>2.691707996229638</v>
       </c>
       <c r="G18">
-        <v>0.002428835154130683</v>
+        <v>0.0007299476394975337</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.187969413167821</v>
+        <v>2.041738701112706</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.772980409645641</v>
+        <v>8.806065730651085</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.119553211255683</v>
+        <v>0.3641571111416155</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.009575162086498779</v>
+        <v>0.006184646367525914</v>
       </c>
       <c r="D19">
-        <v>0.03361992865304586</v>
+        <v>0.01270129256278807</v>
       </c>
       <c r="E19">
-        <v>0.577092595301778</v>
+        <v>2.192188592715183</v>
       </c>
       <c r="F19">
-        <v>1.550899759543995</v>
+        <v>2.66636842009305</v>
       </c>
       <c r="G19">
-        <v>0.002429292772319834</v>
+        <v>0.0007308409864134058</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.184660781056152</v>
+        <v>2.022509417815854</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.752540748650404</v>
+        <v>8.720170769319054</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.12114077345611</v>
+        <v>0.3683905307417845</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.009576797618919386</v>
+        <v>0.006122043035095004</v>
       </c>
       <c r="D20">
-        <v>0.03339607631976094</v>
+        <v>0.01275489803300189</v>
       </c>
       <c r="E20">
-        <v>0.5996669265995962</v>
+        <v>2.299869748800688</v>
       </c>
       <c r="F20">
-        <v>1.57082057392887</v>
+        <v>2.781366640255271</v>
       </c>
       <c r="G20">
-        <v>0.00242724518704896</v>
+        <v>0.0007268191205439534</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.199617226755734</v>
+        <v>2.109791686372631</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.844590779387772</v>
+        <v>9.108516181089328</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.114036371848309</v>
+        <v>0.3495215866868477</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.009583546947649069</v>
+        <v>0.005940033297648029</v>
       </c>
       <c r="D21">
-        <v>0.03268104928158166</v>
+        <v>0.01336026039331273</v>
       </c>
       <c r="E21">
-        <v>0.6758264851974616</v>
+        <v>2.678691621183816</v>
       </c>
       <c r="F21">
-        <v>1.639294382430847</v>
+        <v>3.18665039438406</v>
       </c>
       <c r="G21">
-        <v>0.002420570416009292</v>
+        <v>0.00071324334762449</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.251058124284711</v>
+        <v>2.417677159363933</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.155103331752343</v>
+        <v>10.44907413525476</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.090865923464046</v>
+        <v>0.2895652377474889</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.009588890491293967</v>
+        <v>0.005848297525723467</v>
       </c>
       <c r="D22">
-        <v>0.03224185980284489</v>
+        <v>0.01413976847918974</v>
       </c>
       <c r="E22">
-        <v>0.7258537200951736</v>
+        <v>2.941981964294513</v>
       </c>
       <c r="F22">
-        <v>1.685215678523321</v>
+        <v>3.468330057656857</v>
       </c>
       <c r="G22">
-        <v>0.002416359836449542</v>
+        <v>0.0007042785152804275</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.285579670786547</v>
+        <v>2.631904763314751</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.35899352957739</v>
+        <v>11.35752464664455</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.076247355876298</v>
+        <v>0.2532973131356115</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.009585953296632255</v>
+        <v>0.005894311123626039</v>
       </c>
       <c r="D23">
-        <v>0.03247365905476229</v>
+        <v>0.01368373718762328</v>
       </c>
       <c r="E23">
-        <v>0.69912887781949</v>
+        <v>2.799801883036196</v>
       </c>
       <c r="F23">
-        <v>1.660598295496612</v>
+        <v>3.316260867094769</v>
       </c>
       <c r="G23">
-        <v>0.002418593272573866</v>
+        <v>0.0007090749167288175</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.267071335578734</v>
+        <v>2.516226916778393</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.250084386577157</v>
+        <v>10.86930558360029</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.08400133236475</v>
+        <v>0.2723620871609178</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.009576703076277227</v>
+        <v>0.006125387549939632</v>
       </c>
       <c r="D24">
-        <v>0.03340823091188128</v>
+        <v>0.01275050417218182</v>
       </c>
       <c r="E24">
-        <v>0.5984261238202464</v>
+        <v>2.29389909970341</v>
       </c>
       <c r="F24">
-        <v>1.569720865104244</v>
+        <v>2.774986551631088</v>
       </c>
       <c r="G24">
-        <v>0.002427356857871574</v>
+        <v>0.0007270401153784193</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.198791455333236</v>
+        <v>2.104948322257414</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.839531253764051</v>
+        <v>9.087068431932892</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.114423889184808</v>
+        <v>0.3505456395063931</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.009570748708723542</v>
+        <v>0.006455797703598165</v>
       </c>
       <c r="D25">
-        <v>0.03453396595071112</v>
+        <v>0.01299286810591127</v>
       </c>
       <c r="E25">
-        <v>0.4907613266887978</v>
+        <v>1.797651806610716</v>
       </c>
       <c r="F25">
-        <v>1.476587699882273</v>
+        <v>2.246911300286058</v>
       </c>
       <c r="G25">
-        <v>0.002437467242670799</v>
+        <v>0.0007462959532393842</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.128912452485096</v>
+        <v>1.704472767437224</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.400575603926427</v>
+        <v>7.269269638603816</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.149470273948651</v>
+        <v>0.4452759188409132</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,31 +430,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.006741581665018259</v>
+        <v>0.2004438806247322</v>
       </c>
       <c r="D2">
-        <v>0.01391453488658101</v>
+        <v>0.1230197792369268</v>
       </c>
       <c r="E2">
-        <v>1.459786294415551</v>
+        <v>0.1778664428473071</v>
       </c>
       <c r="F2">
-        <v>1.891798929891849</v>
+        <v>3.873030632736572</v>
       </c>
       <c r="G2">
-        <v>0.0007606070724692086</v>
+        <v>4.425363071421089</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01244390999625128</v>
       </c>
       <c r="I2">
-        <v>1.435672108946264</v>
+        <v>0.02887833550080332</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.315271587001689</v>
       </c>
       <c r="K2">
-        <v>5.991013615333827</v>
+        <v>3.378946000037331</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,13 +463,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5221394189407285</v>
+        <v>0.3050065738110845</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,31 +483,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.006952850445397729</v>
+        <v>0.180163262852588</v>
       </c>
       <c r="D3">
-        <v>0.01488152983519342</v>
+        <v>0.1094339501374151</v>
       </c>
       <c r="E3">
-        <v>1.242453526021876</v>
+        <v>0.1577630232904959</v>
       </c>
       <c r="F3">
-        <v>1.666653526532286</v>
+        <v>3.400516123168757</v>
       </c>
       <c r="G3">
-        <v>0.0007704807125317875</v>
+        <v>3.875162083303849</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.007289955110516222</v>
       </c>
       <c r="I3">
-        <v>1.265501346204488</v>
+        <v>0.01911322549122652</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.051838049147676</v>
       </c>
       <c r="K3">
-        <v>5.150775683053723</v>
+        <v>2.978010692892667</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,13 +516,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5779647794210661</v>
+        <v>0.268322087892642</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,31 +536,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.007089173846399177</v>
+        <v>0.1678382228022812</v>
       </c>
       <c r="D4">
-        <v>0.01561260622540495</v>
+        <v>0.1010479900819945</v>
       </c>
       <c r="E4">
-        <v>1.113307938208038</v>
+        <v>0.1455065768440704</v>
       </c>
       <c r="F4">
-        <v>1.534573157415238</v>
+        <v>3.112215706133867</v>
       </c>
       <c r="G4">
-        <v>0.0007766542842546755</v>
+        <v>3.53915595290087</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.004743603576891298</v>
       </c>
       <c r="I4">
-        <v>1.165778258878007</v>
+        <v>0.01402639582702658</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.891027984533025</v>
       </c>
       <c r="K4">
-        <v>4.644605591211814</v>
+        <v>2.732766314784655</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,13 +569,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.6138930929827993</v>
+        <v>0.2460199054847152</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,31 +589,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.007146145676372839</v>
+        <v>0.1625846817833576</v>
       </c>
       <c r="D5">
-        <v>0.0159410469171366</v>
+        <v>0.09743393214943552</v>
       </c>
       <c r="E5">
-        <v>1.061576830603897</v>
+        <v>0.1404050244678068</v>
       </c>
       <c r="F5">
-        <v>1.482103716396963</v>
+        <v>2.992262946953218</v>
       </c>
       <c r="G5">
-        <v>0.0007792012338549704</v>
+        <v>3.399047860127695</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.003839528241946999</v>
       </c>
       <c r="I5">
-        <v>1.12618743971008</v>
+        <v>0.0121898863754959</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.823929081221024</v>
       </c>
       <c r="K5">
-        <v>4.440383533035003</v>
+        <v>2.629875121227784</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,13 +622,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.6289243644993228</v>
+        <v>0.2370180331947509</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,31 +642,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.007155685437492565</v>
+        <v>0.161408256946352</v>
       </c>
       <c r="D6">
-        <v>0.01599732053835901</v>
+        <v>0.09660849988924269</v>
       </c>
       <c r="E6">
-        <v>1.053036156532499</v>
+        <v>0.1394102821950156</v>
       </c>
       <c r="F6">
-        <v>1.473467727824314</v>
+        <v>2.968907464913627</v>
       </c>
       <c r="G6">
-        <v>0.0007796261230656429</v>
+        <v>3.371488317349389</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.003687739137409718</v>
       </c>
       <c r="I6">
-        <v>1.119672579277946</v>
+        <v>0.01194045034347369</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.810657675114783</v>
       </c>
       <c r="K6">
-        <v>4.406585297729578</v>
+        <v>2.608996422065516</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,13 +675,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.631443184103869</v>
+        <v>0.2355772936528666</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,31 +695,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.007089936724145929</v>
+        <v>0.1669277168856951</v>
       </c>
       <c r="D7">
-        <v>0.01561691702141488</v>
+        <v>0.1003829849995839</v>
       </c>
       <c r="E7">
-        <v>1.112606869072494</v>
+        <v>0.14502984313647</v>
       </c>
       <c r="F7">
-        <v>1.533860293711768</v>
+        <v>3.101106162412037</v>
       </c>
       <c r="G7">
-        <v>0.0007766885030840415</v>
+        <v>3.525423017613235</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.004699964737887141</v>
       </c>
       <c r="I7">
-        <v>1.165240269939417</v>
+        <v>0.014096597322939</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.884250656578018</v>
       </c>
       <c r="K7">
-        <v>4.641843594583577</v>
+        <v>2.720942361325072</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,13 +728,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.6140942611014193</v>
+        <v>0.2460385491647585</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,31 +748,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.006812893405262699</v>
+        <v>0.1922806115083802</v>
       </c>
       <c r="D8">
-        <v>0.01421685353586355</v>
+        <v>0.1175144685894196</v>
       </c>
       <c r="E8">
-        <v>1.383839253494259</v>
+        <v>0.1703587047776196</v>
       </c>
       <c r="F8">
-        <v>1.812765998648104</v>
+        <v>3.69687579099093</v>
       </c>
       <c r="G8">
-        <v>0.0007639905040544882</v>
+        <v>4.219243353305131</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01046992222114193</v>
       </c>
       <c r="I8">
-        <v>1.375912651050186</v>
+        <v>0.02536915866729572</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.216307566343232</v>
       </c>
       <c r="K8">
-        <v>5.699020518755219</v>
+        <v>3.226408732843751</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,13 +781,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5410292645470491</v>
+        <v>0.2924853783503067</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,31 +801,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.00633642874937479</v>
+        <v>0.245189030197011</v>
       </c>
       <c r="D9">
-        <v>0.01277695738915341</v>
+        <v>0.1519834883885949</v>
       </c>
       <c r="E9">
-        <v>1.959683892763636</v>
+        <v>0.2218511072362759</v>
       </c>
       <c r="F9">
-        <v>2.418724683768389</v>
+        <v>4.902152658636965</v>
       </c>
       <c r="G9">
-        <v>0.0007398028185236401</v>
+        <v>5.621745076194941</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02745814603646313</v>
       </c>
       <c r="I9">
-        <v>1.834678924146658</v>
+        <v>0.05571919934302461</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2.888422719107666</v>
       </c>
       <c r="K9">
-        <v>7.87050914876562</v>
+        <v>4.248082443535651</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,13 +834,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4121540842021076</v>
+        <v>0.3856554473085936</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,31 +854,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.006054619394056715</v>
+        <v>0.282279435932125</v>
       </c>
       <c r="D10">
-        <v>0.01288649214660254</v>
+        <v>0.1737802709971561</v>
       </c>
       <c r="E10">
-        <v>2.426460488217586</v>
+        <v>0.2525897259375647</v>
       </c>
       <c r="F10">
-        <v>2.916717638408073</v>
+        <v>5.752101111006624</v>
       </c>
       <c r="G10">
-        <v>0.0007221868916471794</v>
+        <v>6.604324413584493</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.04362263216922724</v>
       </c>
       <c r="I10">
-        <v>2.212567490163252</v>
+        <v>0.08375150494398742</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3.358666991444693</v>
       </c>
       <c r="K10">
-        <v>9.560915220434481</v>
+        <v>4.954274062536228</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,13 +887,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3284045536557194</v>
+        <v>0.4383945098373374</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,31 +907,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.005950383364009326</v>
+        <v>0.2718892331049432</v>
       </c>
       <c r="D11">
-        <v>0.01330018831959023</v>
+        <v>0.155616969188813</v>
       </c>
       <c r="E11">
-        <v>2.65329788659713</v>
+        <v>0.2025169057718266</v>
       </c>
       <c r="F11">
-        <v>3.159470326189108</v>
+        <v>5.688588704562761</v>
       </c>
       <c r="G11">
-        <v>0.0007141273911119509</v>
+        <v>6.48996870743224</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.06303570869418706</v>
       </c>
       <c r="I11">
-        <v>2.397015931514247</v>
+        <v>0.08968847672189462</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>3.295858529440295</v>
       </c>
       <c r="K11">
-        <v>10.3604517437779</v>
+        <v>4.810275375148336</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,13 +940,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.2932882500497129</v>
+        <v>0.3213161157922428</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,31 +960,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.005915447021994424</v>
+        <v>0.2594667659498811</v>
       </c>
       <c r="D12">
-        <v>0.01352132083864532</v>
+        <v>0.1376988711302829</v>
       </c>
       <c r="E12">
-        <v>2.741828765726552</v>
+        <v>0.1634465700424137</v>
       </c>
       <c r="F12">
-        <v>3.254224365584861</v>
+        <v>5.468650151763455</v>
       </c>
       <c r="G12">
-        <v>0.0007110605111507154</v>
+        <v>6.204087654868488</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.09987570867482987</v>
       </c>
       <c r="I12">
-        <v>2.469052144244344</v>
+        <v>0.08854781591849381</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>3.15219871969083</v>
       </c>
       <c r="K12">
-        <v>10.6686508049965</v>
+        <v>4.557467617495604</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,13 +993,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.2804839165094108</v>
+        <v>0.2319340591181458</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,31 +1013,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.005922748347600759</v>
+        <v>0.2434545562947186</v>
       </c>
       <c r="D13">
-        <v>0.01347060163268665</v>
+        <v>0.1181497052286531</v>
       </c>
       <c r="E13">
-        <v>2.722634743834362</v>
+        <v>0.1302259174254932</v>
       </c>
       <c r="F13">
-        <v>3.233682492338062</v>
+        <v>5.102424005681456</v>
       </c>
       <c r="G13">
-        <v>0.0007117218347548748</v>
+        <v>5.753537335700116</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1515161524535387</v>
       </c>
       <c r="I13">
-        <v>2.453433431462358</v>
+        <v>0.08195448650933468</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2.929946413548578</v>
       </c>
       <c r="K13">
-        <v>10.60201408672373</v>
+        <v>4.192250873461035</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,13 +1046,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.2832184327569358</v>
+        <v>0.1596645010797673</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,31 +1066,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.00594741074903915</v>
+        <v>0.2311220606770128</v>
       </c>
       <c r="D14">
-        <v>0.01331700827553917</v>
+        <v>0.1038957057892418</v>
       </c>
       <c r="E14">
-        <v>2.660524981869756</v>
+        <v>0.1110629274632</v>
       </c>
       <c r="F14">
-        <v>3.167205871677794</v>
+        <v>4.780769678464083</v>
       </c>
       <c r="G14">
-        <v>0.0007138754304328529</v>
+        <v>5.364914659024066</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1971778352409785</v>
       </c>
       <c r="I14">
-        <v>2.402896005136341</v>
+        <v>0.07522584701282575</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>2.739337881620486</v>
       </c>
       <c r="K14">
-        <v>10.38569185888042</v>
+        <v>3.886718882198409</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,13 +1099,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.2922245204682916</v>
+        <v>0.1201943296977035</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,31 +1119,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.005963146043919565</v>
+        <v>0.2269285246664836</v>
       </c>
       <c r="D15">
-        <v>0.01323173698379065</v>
+        <v>0.09981349173761345</v>
       </c>
       <c r="E15">
-        <v>2.622842392525129</v>
+        <v>0.1064773272243755</v>
       </c>
       <c r="F15">
-        <v>3.126871997973865</v>
+        <v>4.668918267598627</v>
       </c>
       <c r="G15">
-        <v>0.0007151923487169258</v>
+        <v>5.232094042597851</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2081946989407157</v>
       </c>
       <c r="I15">
-        <v>2.372238375125704</v>
+        <v>0.07252503701595625</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2.674665515885522</v>
       </c>
       <c r="K15">
-        <v>10.25393022697693</v>
+        <v>3.78540729575613</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,13 +1152,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.297807424537897</v>
+        <v>0.111651503115116</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,31 +1172,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.006061999347480196</v>
+        <v>0.2144980230837561</v>
       </c>
       <c r="D16">
-        <v>0.01286775032864185</v>
+        <v>0.09494030758062166</v>
       </c>
       <c r="E16">
-        <v>2.411971679419011</v>
+        <v>0.1014049829416583</v>
       </c>
       <c r="F16">
-        <v>2.901219626012391</v>
+        <v>4.383347073260154</v>
       </c>
       <c r="G16">
-        <v>0.0007227120037438528</v>
+        <v>4.908778620182716</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1894743879899323</v>
       </c>
       <c r="I16">
-        <v>2.200796945210229</v>
+        <v>0.06209441882148248</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2.521073319031814</v>
       </c>
       <c r="K16">
-        <v>9.509362394901586</v>
+        <v>3.562607482417548</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,13 +1205,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3307647149852002</v>
+        <v>0.107138415847885</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,31 +1225,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.006129455693034913</v>
+        <v>0.2110534142659368</v>
       </c>
       <c r="D17">
-        <v>0.01274540701992066</v>
+        <v>0.09848210865020945</v>
       </c>
       <c r="E17">
-        <v>2.286672087892555</v>
+        <v>0.106560348569344</v>
       </c>
       <c r="F17">
-        <v>2.767264474290926</v>
+        <v>4.332825215815689</v>
       </c>
       <c r="G17">
-        <v>0.0007273079228920214</v>
+        <v>4.863970980251963</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1490360924285881</v>
       </c>
       <c r="I17">
-        <v>2.099086352671335</v>
+        <v>0.0576192029238678</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2.503006596417947</v>
       </c>
       <c r="K17">
-        <v>9.061094248777806</v>
+        <v>3.550971052335285</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,13 +1258,19 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3517886186527264</v>
+        <v>0.1221961554197541</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,31 +1278,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.006170428416099938</v>
+        <v>0.2166366409755867</v>
       </c>
       <c r="D18">
-        <v>0.01270841088601671</v>
+        <v>0.1106619210317845</v>
       </c>
       <c r="E18">
-        <v>2.215928235138108</v>
+        <v>0.1257541662221904</v>
       </c>
       <c r="F18">
-        <v>2.691707996229638</v>
+        <v>4.486046489329567</v>
       </c>
       <c r="G18">
-        <v>0.0007299476394975337</v>
+        <v>5.063613587809982</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.09628946495358548</v>
       </c>
       <c r="I18">
-        <v>2.041738701112706</v>
+        <v>0.0573577809239838</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2.604269588870011</v>
       </c>
       <c r="K18">
-        <v>8.806065730651085</v>
+        <v>3.729342344997434</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,13 +1311,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3641571111416155</v>
+        <v>0.1660977709550195</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,31 +1331,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.006184646367525914</v>
+        <v>0.2306186228147986</v>
       </c>
       <c r="D19">
-        <v>0.01270129256278807</v>
+        <v>0.1289687387400136</v>
       </c>
       <c r="E19">
-        <v>2.192188592715183</v>
+        <v>0.1614153402957719</v>
       </c>
       <c r="F19">
-        <v>2.66636842009305</v>
+        <v>4.778937825481819</v>
       </c>
       <c r="G19">
-        <v>0.0007308409864134058</v>
+        <v>5.430330866066925</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.05379666922006265</v>
       </c>
       <c r="I19">
-        <v>2.022509417815854</v>
+        <v>0.06090755598554054</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2.786444784964317</v>
       </c>
       <c r="K19">
-        <v>8.720170769319054</v>
+        <v>4.035379485679755</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,13 +1364,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3683905307417845</v>
+        <v>0.2461082244295909</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,31 +1384,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.006122043035095004</v>
+        <v>0.2694686127273798</v>
       </c>
       <c r="D20">
-        <v>0.01275489803300189</v>
+        <v>0.1659130796078898</v>
       </c>
       <c r="E20">
-        <v>2.299869748800688</v>
+        <v>0.2427140590635091</v>
       </c>
       <c r="F20">
-        <v>2.781366640255271</v>
+        <v>5.493800294431765</v>
       </c>
       <c r="G20">
-        <v>0.0007268191205439534</v>
+        <v>6.302789555953609</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.03873010496671858</v>
       </c>
       <c r="I20">
-        <v>2.109791686372631</v>
+        <v>0.07581645596949116</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>3.2137001613591</v>
       </c>
       <c r="K20">
-        <v>9.108516181089328</v>
+        <v>4.731217101643779</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,13 +1417,19 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3495215866868477</v>
+        <v>0.4240135834634771</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,31 +1437,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.005940033297648029</v>
+        <v>0.3045226085440049</v>
       </c>
       <c r="D21">
-        <v>0.01336026039331273</v>
+        <v>0.1880288842841509</v>
       </c>
       <c r="E21">
-        <v>2.678691621183816</v>
+        <v>0.2796491824080007</v>
       </c>
       <c r="F21">
-        <v>3.18665039438406</v>
+        <v>6.238844957946696</v>
       </c>
       <c r="G21">
-        <v>0.00071324334762449</v>
+        <v>7.171187439388575</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.05401037626143168</v>
       </c>
       <c r="I21">
-        <v>2.417677159363933</v>
+        <v>0.1013646831532284</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>3.63089956877343</v>
       </c>
       <c r="K21">
-        <v>10.44907413525476</v>
+        <v>5.36631080128052</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,13 +1470,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.2895652377474889</v>
+        <v>0.4932972661529789</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,31 +1490,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.005848297525723467</v>
+        <v>0.3277157593343603</v>
       </c>
       <c r="D22">
-        <v>0.01413976847918974</v>
+        <v>0.2017829810639995</v>
       </c>
       <c r="E22">
-        <v>2.941981964294513</v>
+        <v>0.3007317631006359</v>
       </c>
       <c r="F22">
-        <v>3.468330057656857</v>
+        <v>6.720292525392495</v>
       </c>
       <c r="G22">
-        <v>0.0007042785152804275</v>
+        <v>7.730938641609271</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.06496879138312472</v>
       </c>
       <c r="I22">
-        <v>2.631904763314751</v>
+        <v>0.1195099900491901</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>3.899678558323956</v>
       </c>
       <c r="K22">
-        <v>11.35752464664455</v>
+        <v>5.774473139538827</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,13 +1523,19 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.2532973131356115</v>
+        <v>0.5299912417569175</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,31 +1543,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.005894311123626039</v>
+        <v>0.3163480886662029</v>
       </c>
       <c r="D23">
-        <v>0.01368373718762328</v>
+        <v>0.1952144378857099</v>
       </c>
       <c r="E23">
-        <v>2.799801883036196</v>
+        <v>0.2899779178407513</v>
       </c>
       <c r="F23">
-        <v>3.316260867094769</v>
+        <v>6.474851300876821</v>
       </c>
       <c r="G23">
-        <v>0.0007090749167288175</v>
+        <v>7.446647900682024</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.05912577993356027</v>
       </c>
       <c r="I23">
-        <v>2.516226916778393</v>
+        <v>0.1096961008105497</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>3.763365293227366</v>
       </c>
       <c r="K23">
-        <v>10.86930558360029</v>
+        <v>5.569473614186251</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,13 +1576,19 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.2723620871609178</v>
+        <v>0.5101972837735076</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,31 +1596,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.006125387549939632</v>
+        <v>0.2730989701454405</v>
       </c>
       <c r="D24">
-        <v>0.01275050417218182</v>
+        <v>0.1692425186039657</v>
       </c>
       <c r="E24">
-        <v>2.29389909970341</v>
+        <v>0.2493031081821151</v>
       </c>
       <c r="F24">
-        <v>2.774986551631088</v>
+        <v>5.539684439749863</v>
       </c>
       <c r="G24">
-        <v>0.0007270401153784193</v>
+        <v>6.361005964906497</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.03921676803618013</v>
       </c>
       <c r="I24">
-        <v>2.104948322257414</v>
+        <v>0.07612979451013402</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>3.24258625152811</v>
       </c>
       <c r="K24">
-        <v>9.087068431932892</v>
+        <v>4.781864388351721</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,13 +1629,19 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3505456395063931</v>
+        <v>0.4369364743242699</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,31 +1649,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.006455797703598165</v>
+        <v>0.2290144603455246</v>
       </c>
       <c r="D25">
-        <v>0.01299286810591127</v>
+        <v>0.1415156003880185</v>
       </c>
       <c r="E25">
-        <v>1.797651806610716</v>
+        <v>0.2069670465665432</v>
       </c>
       <c r="F25">
-        <v>2.246911300286058</v>
+        <v>4.555315805643289</v>
       </c>
       <c r="G25">
-        <v>0.0007462959532393842</v>
+        <v>5.216943200528476</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02204329108254521</v>
       </c>
       <c r="I25">
-        <v>1.704472767437224</v>
+        <v>0.04648831163416212</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2.694038750707819</v>
       </c>
       <c r="K25">
-        <v>7.269269638603816</v>
+        <v>3.950230390875362</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4452759188409132</v>
+        <v>0.3603518069806171</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_32/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_32/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2004438806247322</v>
+        <v>0.1378250609264171</v>
       </c>
       <c r="D2">
-        <v>0.1230197792369268</v>
+        <v>0.06943733426120957</v>
       </c>
       <c r="E2">
-        <v>0.1778664428473071</v>
+        <v>0.1359883268104447</v>
       </c>
       <c r="F2">
-        <v>3.873030632736572</v>
+        <v>2.955252598405707</v>
       </c>
       <c r="G2">
-        <v>4.425363071421089</v>
+        <v>3.254758084926408</v>
       </c>
       <c r="H2">
-        <v>0.01244390999625128</v>
+        <v>0.008211057090950935</v>
       </c>
       <c r="I2">
-        <v>0.02887833550080332</v>
+        <v>0.01990784156946424</v>
       </c>
       <c r="J2">
-        <v>2.315271587001689</v>
+        <v>1.825596053309937</v>
       </c>
       <c r="K2">
-        <v>3.378946000037331</v>
+        <v>2.385868080174774</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.9826426161961592</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8333831586190854</v>
       </c>
       <c r="N2">
-        <v>0.3050065738110845</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3221532139370566</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.180163262852588</v>
+        <v>0.123996516276188</v>
       </c>
       <c r="D3">
-        <v>0.1094339501374151</v>
+        <v>0.06321501033100674</v>
       </c>
       <c r="E3">
-        <v>0.1577630232904959</v>
+        <v>0.1224207875462113</v>
       </c>
       <c r="F3">
-        <v>3.400516123168757</v>
+        <v>2.617161432012466</v>
       </c>
       <c r="G3">
-        <v>3.875162083303849</v>
+        <v>2.870920508018031</v>
       </c>
       <c r="H3">
-        <v>0.007289955110516222</v>
+        <v>0.004802111270717724</v>
       </c>
       <c r="I3">
-        <v>0.01911322549122652</v>
+        <v>0.0135694856968267</v>
       </c>
       <c r="J3">
-        <v>2.051838049147676</v>
+        <v>1.639003575647706</v>
       </c>
       <c r="K3">
-        <v>2.978010692892667</v>
+        <v>2.12727736067535</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.9079346300524378</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7122601909909321</v>
       </c>
       <c r="N3">
-        <v>0.268322087892642</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2848866134449679</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1678382228022812</v>
+        <v>0.1156734509194752</v>
       </c>
       <c r="D4">
-        <v>0.1010479900819945</v>
+        <v>0.05930909627382164</v>
       </c>
       <c r="E4">
-        <v>0.1455065768440704</v>
+        <v>0.1140796386997813</v>
       </c>
       <c r="F4">
-        <v>3.112215706133867</v>
+        <v>2.409739721040765</v>
       </c>
       <c r="G4">
-        <v>3.53915595290087</v>
+        <v>2.63556757006171</v>
       </c>
       <c r="H4">
-        <v>0.004743603576891298</v>
+        <v>0.003112527687454625</v>
       </c>
       <c r="I4">
-        <v>0.01402639582702658</v>
+        <v>0.01022401831485098</v>
       </c>
       <c r="J4">
-        <v>1.891027984533025</v>
+        <v>1.52395697693666</v>
       </c>
       <c r="K4">
-        <v>2.732766314784655</v>
+        <v>1.967978580300112</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.8608553449791714</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6393365690619959</v>
       </c>
       <c r="N4">
-        <v>0.2460199054847152</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2621290635639895</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1625846817833576</v>
+        <v>0.1123096974809386</v>
       </c>
       <c r="D5">
-        <v>0.09743393214943552</v>
+        <v>0.0575774230808932</v>
       </c>
       <c r="E5">
-        <v>0.1404050244678068</v>
+        <v>0.1105823699712474</v>
       </c>
       <c r="F5">
-        <v>2.992262946953218</v>
+        <v>2.322963829696903</v>
       </c>
       <c r="G5">
-        <v>3.399047860127695</v>
+        <v>2.536924969026529</v>
       </c>
       <c r="H5">
-        <v>0.003839528241946999</v>
+        <v>0.00251237190907605</v>
       </c>
       <c r="I5">
-        <v>0.0121898863754959</v>
+        <v>0.00903725169035674</v>
       </c>
       <c r="J5">
-        <v>1.823929081221024</v>
+        <v>1.475534176967244</v>
       </c>
       <c r="K5">
-        <v>2.629875121227784</v>
+        <v>1.900532502329966</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.8404189773298469</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.6091160903875945</v>
       </c>
       <c r="N5">
-        <v>0.2370180331947509</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2529254484364998</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.161408256946352</v>
+        <v>0.1117486092291031</v>
       </c>
       <c r="D6">
-        <v>0.09660849988924269</v>
+        <v>0.05714402164775834</v>
       </c>
       <c r="E6">
-        <v>0.1394102821950156</v>
+        <v>0.1098888867524188</v>
       </c>
       <c r="F6">
-        <v>2.968907464913627</v>
+        <v>2.305806328160827</v>
       </c>
       <c r="G6">
-        <v>3.371488317349389</v>
+        <v>2.517174122170331</v>
       </c>
       <c r="H6">
-        <v>0.003687739137409718</v>
+        <v>0.002411802882115177</v>
       </c>
       <c r="I6">
-        <v>0.01194045034347369</v>
+        <v>0.008918463235851881</v>
       </c>
       <c r="J6">
-        <v>1.810657675114783</v>
+        <v>1.465766251913578</v>
       </c>
       <c r="K6">
-        <v>2.608996422065516</v>
+        <v>1.886424470924567</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.835855966164786</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.6030817213937425</v>
       </c>
       <c r="N6">
-        <v>0.2355772936528666</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2514551607890496</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1669277168856951</v>
+        <v>0.1155745425236319</v>
       </c>
       <c r="D7">
-        <v>0.1003829849995839</v>
+        <v>0.05864942508210902</v>
       </c>
       <c r="E7">
-        <v>0.14502984313647</v>
+        <v>0.1137681368378978</v>
       </c>
       <c r="F7">
-        <v>3.101106162412037</v>
+        <v>2.396521838848585</v>
       </c>
       <c r="G7">
-        <v>3.525423017613235</v>
+        <v>2.63194441689447</v>
       </c>
       <c r="H7">
-        <v>0.004699964737887141</v>
+        <v>0.003076807649569746</v>
       </c>
       <c r="I7">
-        <v>0.014096597322939</v>
+        <v>0.01036083007248578</v>
       </c>
       <c r="J7">
-        <v>1.884250656578018</v>
+        <v>1.50268568843768</v>
       </c>
       <c r="K7">
-        <v>2.720942361325072</v>
+        <v>1.955642905713091</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.8560862335367858</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.63480067063972</v>
       </c>
       <c r="N7">
-        <v>0.2460385491647585</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2620506666064415</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1922806115083802</v>
+        <v>0.1328660986916486</v>
       </c>
       <c r="D8">
-        <v>0.1175144685894196</v>
+        <v>0.06598441185410309</v>
       </c>
       <c r="E8">
-        <v>0.1703587047776196</v>
+        <v>0.1310451926622029</v>
       </c>
       <c r="F8">
-        <v>3.69687579099093</v>
+        <v>2.813433831920833</v>
       </c>
       <c r="G8">
-        <v>4.219243353305131</v>
+        <v>3.133242023382508</v>
       </c>
       <c r="H8">
-        <v>0.01046992222114193</v>
+        <v>0.006874173427233066</v>
       </c>
       <c r="I8">
-        <v>0.02536915866729572</v>
+        <v>0.01769962431348659</v>
       </c>
       <c r="J8">
-        <v>2.216307566343232</v>
+        <v>1.702110327928722</v>
       </c>
       <c r="K8">
-        <v>3.226408732843751</v>
+        <v>2.274550334172858</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.9486194225412987</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7830254728297064</v>
       </c>
       <c r="N8">
-        <v>0.2924853783503067</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3091121237392827</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.245189030197011</v>
+        <v>0.1687154377747877</v>
       </c>
       <c r="D9">
-        <v>0.1519834883885949</v>
+        <v>0.08127850273793058</v>
       </c>
       <c r="E9">
-        <v>0.2218511072362759</v>
+        <v>0.1654214822912436</v>
       </c>
       <c r="F9">
-        <v>4.902152658636965</v>
+        <v>3.664643618086927</v>
       </c>
       <c r="G9">
-        <v>5.621745076194941</v>
+        <v>4.113359511195767</v>
       </c>
       <c r="H9">
-        <v>0.02745814603646313</v>
+        <v>0.01798255999524256</v>
       </c>
       <c r="I9">
-        <v>0.05571919934302461</v>
+        <v>0.03684537480272621</v>
       </c>
       <c r="J9">
-        <v>2.888422719107666</v>
+        <v>2.155861333999951</v>
       </c>
       <c r="K9">
-        <v>4.248082443535651</v>
+        <v>2.92422222485834</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.131198406754095</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.096125044836157</v>
       </c>
       <c r="N9">
-        <v>0.3856554473085936</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4028490242869935</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.282279435932125</v>
+        <v>0.1965031452212749</v>
       </c>
       <c r="D10">
-        <v>0.1737802709971561</v>
+        <v>0.08875879232600425</v>
       </c>
       <c r="E10">
-        <v>0.2525897259375647</v>
+        <v>0.1848336827198658</v>
       </c>
       <c r="F10">
-        <v>5.752101111006624</v>
+        <v>4.229370598193782</v>
       </c>
       <c r="G10">
-        <v>6.604324413584493</v>
+        <v>4.834702208526778</v>
       </c>
       <c r="H10">
-        <v>0.04362263216922724</v>
+        <v>0.02833500239700371</v>
       </c>
       <c r="I10">
-        <v>0.08375150494398742</v>
+        <v>0.054034805733715</v>
       </c>
       <c r="J10">
-        <v>3.358666991444693</v>
+        <v>2.371265370412743</v>
       </c>
       <c r="K10">
-        <v>4.954274062536228</v>
+        <v>3.342746312155413</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.238748907704064</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.31167845752617</v>
       </c>
       <c r="N10">
-        <v>0.4383945098373374</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.4536723530099067</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2718892331049432</v>
+        <v>0.210163402999342</v>
       </c>
       <c r="D11">
-        <v>0.155616969188813</v>
+        <v>0.0748807514361971</v>
       </c>
       <c r="E11">
-        <v>0.2025169057718266</v>
+        <v>0.1454667763298119</v>
       </c>
       <c r="F11">
-        <v>5.688588704562761</v>
+        <v>4.122785808916717</v>
       </c>
       <c r="G11">
-        <v>6.48996870743224</v>
+        <v>4.838215410123382</v>
       </c>
       <c r="H11">
-        <v>0.06303570869418706</v>
+        <v>0.04704983998993839</v>
       </c>
       <c r="I11">
-        <v>0.08968847672189462</v>
+        <v>0.05787558231371026</v>
       </c>
       <c r="J11">
-        <v>3.295858529440295</v>
+        <v>2.127728616404255</v>
       </c>
       <c r="K11">
-        <v>4.810275375148336</v>
+        <v>3.188407685182938</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.163882112959641</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.272814068779113</v>
       </c>
       <c r="N11">
-        <v>0.3213161157922428</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.3284808043335232</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2594667659498811</v>
+        <v>0.217643747896993</v>
       </c>
       <c r="D12">
-        <v>0.1376988711302829</v>
+        <v>0.0641450397808967</v>
       </c>
       <c r="E12">
-        <v>0.1634465700424137</v>
+        <v>0.1169383144114189</v>
       </c>
       <c r="F12">
-        <v>5.468650151763455</v>
+        <v>3.942200338119449</v>
       </c>
       <c r="G12">
-        <v>6.204087654868488</v>
+        <v>4.675209422511841</v>
       </c>
       <c r="H12">
-        <v>0.09987570867482987</v>
+        <v>0.0844607028982054</v>
       </c>
       <c r="I12">
-        <v>0.08854781591849381</v>
+        <v>0.05733680436191602</v>
       </c>
       <c r="J12">
-        <v>3.15219871969083</v>
+        <v>1.946934046276795</v>
       </c>
       <c r="K12">
-        <v>4.557467617495604</v>
+        <v>2.997674809893979</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.089042303350652</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.204421140522214</v>
       </c>
       <c r="N12">
-        <v>0.2319340591181458</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2332182448249895</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2434545562947186</v>
+        <v>0.2211714831105951</v>
       </c>
       <c r="D13">
-        <v>0.1181497052286531</v>
+        <v>0.05481431717129936</v>
       </c>
       <c r="E13">
-        <v>0.1302259174254932</v>
+        <v>0.09478406510419557</v>
       </c>
       <c r="F13">
-        <v>5.102424005681456</v>
+        <v>3.693248947842079</v>
       </c>
       <c r="G13">
-        <v>5.753537335700116</v>
+        <v>4.344447175612856</v>
       </c>
       <c r="H13">
-        <v>0.1515161524535387</v>
+        <v>0.1377194027607374</v>
       </c>
       <c r="I13">
-        <v>0.08195448650933468</v>
+        <v>0.05365149380079259</v>
       </c>
       <c r="J13">
-        <v>2.929946413548578</v>
+        <v>1.825099907782487</v>
       </c>
       <c r="K13">
-        <v>4.192250873461035</v>
+        <v>2.763684848762736</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.007495778142157</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.108420250609257</v>
       </c>
       <c r="N13">
-        <v>0.1596645010797673</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1563579586596333</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2311220606770128</v>
+        <v>0.2224126584811756</v>
       </c>
       <c r="D14">
-        <v>0.1038957057892418</v>
+        <v>0.04879796135472958</v>
       </c>
       <c r="E14">
-        <v>0.1110629274632</v>
+        <v>0.08349770945058133</v>
       </c>
       <c r="F14">
-        <v>4.780769678464083</v>
+        <v>3.486240313604554</v>
       </c>
       <c r="G14">
-        <v>5.364914659024066</v>
+        <v>4.039662594452096</v>
       </c>
       <c r="H14">
-        <v>0.1971778352409785</v>
+        <v>0.1848852032129855</v>
       </c>
       <c r="I14">
-        <v>0.07522584701282575</v>
+        <v>0.04985360816950024</v>
       </c>
       <c r="J14">
-        <v>2.739337881620486</v>
+        <v>1.760623539541427</v>
       </c>
       <c r="K14">
-        <v>3.886718882198409</v>
+        <v>2.578692091155574</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.9463716072910557</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.028576934433787</v>
       </c>
       <c r="N14">
-        <v>0.1201943296977035</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1140980628906441</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2269285246664836</v>
+        <v>0.2218591309956821</v>
       </c>
       <c r="D15">
-        <v>0.09981349173761345</v>
+        <v>0.04731665204992552</v>
       </c>
       <c r="E15">
-        <v>0.1064773272243755</v>
+        <v>0.08103575776436145</v>
       </c>
       <c r="F15">
-        <v>4.668918267598627</v>
+        <v>3.417734797444894</v>
       </c>
       <c r="G15">
-        <v>5.232094042597851</v>
+        <v>3.929458835918155</v>
       </c>
       <c r="H15">
-        <v>0.2081946989407157</v>
+        <v>0.1964963461659863</v>
       </c>
       <c r="I15">
-        <v>0.07252503701595625</v>
+        <v>0.04834950848751962</v>
       </c>
       <c r="J15">
-        <v>2.674665515885522</v>
+        <v>1.75146513951168</v>
       </c>
       <c r="K15">
-        <v>3.78540729575613</v>
+        <v>2.520760168032041</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.9285059545563286</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.002043528228455</v>
       </c>
       <c r="N15">
-        <v>0.111651503115116</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1050821197920442</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2144980230837561</v>
+        <v>0.2101789401780607</v>
       </c>
       <c r="D16">
-        <v>0.09494030758062166</v>
+        <v>0.04737801775114647</v>
       </c>
       <c r="E16">
-        <v>0.1014049829416583</v>
+        <v>0.07789143488897921</v>
       </c>
       <c r="F16">
-        <v>4.383347073260154</v>
+        <v>3.264811265386015</v>
       </c>
       <c r="G16">
-        <v>4.908778620182716</v>
+        <v>3.630203438358194</v>
       </c>
       <c r="H16">
-        <v>0.1894743879899323</v>
+        <v>0.1799584594996873</v>
       </c>
       <c r="I16">
-        <v>0.06209441882148248</v>
+        <v>0.0421357171795389</v>
       </c>
       <c r="J16">
-        <v>2.521073319031814</v>
+        <v>1.808323362721467</v>
       </c>
       <c r="K16">
-        <v>3.562607482417548</v>
+        <v>2.418038954131504</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.9074572517692587</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.9423166883104983</v>
       </c>
       <c r="N16">
-        <v>0.107138415847885</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1025565203828407</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2110534142659368</v>
+        <v>0.1999993709766485</v>
       </c>
       <c r="D17">
-        <v>0.09848210865020945</v>
+        <v>0.05042037572619762</v>
       </c>
       <c r="E17">
-        <v>0.106560348569344</v>
+        <v>0.08043444590618343</v>
       </c>
       <c r="F17">
-        <v>4.332825215815689</v>
+        <v>3.250509913904523</v>
       </c>
       <c r="G17">
-        <v>4.863970980251963</v>
+        <v>3.569912309238589</v>
       </c>
       <c r="H17">
-        <v>0.1490360924285881</v>
+        <v>0.1403964675612741</v>
       </c>
       <c r="I17">
-        <v>0.0576192029238678</v>
+        <v>0.03934729032652218</v>
       </c>
       <c r="J17">
-        <v>2.503006596417947</v>
+        <v>1.867577323994766</v>
       </c>
       <c r="K17">
-        <v>3.550971052335285</v>
+        <v>2.431954119286033</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.922239566075632</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.9363268507762257</v>
       </c>
       <c r="N17">
-        <v>0.1221961554197541</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1206983023955459</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2166366409755867</v>
+        <v>0.1908195387866556</v>
       </c>
       <c r="D18">
-        <v>0.1106619210317845</v>
+        <v>0.05746767282732179</v>
       </c>
       <c r="E18">
-        <v>0.1257541662221904</v>
+        <v>0.09251202886367338</v>
       </c>
       <c r="F18">
-        <v>4.486046489329567</v>
+        <v>3.369955597378265</v>
       </c>
       <c r="G18">
-        <v>5.063613587809982</v>
+        <v>3.699976736516504</v>
       </c>
       <c r="H18">
-        <v>0.09628946495358548</v>
+        <v>0.08755928540209368</v>
       </c>
       <c r="I18">
-        <v>0.0573577809239838</v>
+        <v>0.0389162082978034</v>
       </c>
       <c r="J18">
-        <v>2.604269588870011</v>
+        <v>1.971154376029489</v>
       </c>
       <c r="K18">
-        <v>3.729342344997434</v>
+        <v>2.562880059415846</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.9754895667124543</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.9811766959051624</v>
       </c>
       <c r="N18">
-        <v>0.1660977709550195</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1691910334018658</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2306186228147986</v>
+        <v>0.1853818945145775</v>
       </c>
       <c r="D19">
-        <v>0.1289687387400136</v>
+        <v>0.06751615220379392</v>
       </c>
       <c r="E19">
-        <v>0.1614153402957719</v>
+        <v>0.1176057168963567</v>
       </c>
       <c r="F19">
-        <v>4.778937825481819</v>
+        <v>3.581243440614742</v>
       </c>
       <c r="G19">
-        <v>5.430330866066925</v>
+        <v>3.955104572304123</v>
       </c>
       <c r="H19">
-        <v>0.05379666922006265</v>
+        <v>0.04411745743065865</v>
       </c>
       <c r="I19">
-        <v>0.06090755598554054</v>
+        <v>0.04095979207209766</v>
       </c>
       <c r="J19">
-        <v>2.786444784964317</v>
+        <v>2.109264726100207</v>
       </c>
       <c r="K19">
-        <v>4.035379485679755</v>
+        <v>2.771472881190633</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.053334510268726</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.060916293998673</v>
       </c>
       <c r="N19">
-        <v>0.2461082244295909</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2548107956261276</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2694686127273798</v>
+        <v>0.1893719744359643</v>
       </c>
       <c r="D20">
-        <v>0.1659130796078898</v>
+        <v>0.08639650767696594</v>
       </c>
       <c r="E20">
-        <v>0.2427140590635091</v>
+        <v>0.1782898931569257</v>
       </c>
       <c r="F20">
-        <v>5.493800294431765</v>
+        <v>4.071677301184792</v>
       </c>
       <c r="G20">
-        <v>6.302789555953609</v>
+        <v>4.586948212284426</v>
       </c>
       <c r="H20">
-        <v>0.03873010496671858</v>
+        <v>0.02528028452816544</v>
       </c>
       <c r="I20">
-        <v>0.07581645596949116</v>
+        <v>0.04972158284581774</v>
       </c>
       <c r="J20">
-        <v>3.2137001613591</v>
+        <v>2.356628589160152</v>
       </c>
       <c r="K20">
-        <v>4.731217101643779</v>
+        <v>3.218859890539164</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.205742396318527</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.248982086144608</v>
       </c>
       <c r="N20">
-        <v>0.4240135834634771</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.44033610565819</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3045226085440049</v>
+        <v>0.2106343540161042</v>
       </c>
       <c r="D21">
-        <v>0.1880288842841509</v>
+        <v>0.09043498353526758</v>
       </c>
       <c r="E21">
-        <v>0.2796491824080007</v>
+        <v>0.204205314083886</v>
       </c>
       <c r="F21">
-        <v>6.238844957946696</v>
+        <v>4.47885618142584</v>
       </c>
       <c r="G21">
-        <v>7.171187439388575</v>
+        <v>5.358107323435604</v>
       </c>
       <c r="H21">
-        <v>0.05401037626143168</v>
+        <v>0.03457246085913468</v>
       </c>
       <c r="I21">
-        <v>0.1013646831532284</v>
+        <v>0.06437739495054817</v>
       </c>
       <c r="J21">
-        <v>3.63089956877343</v>
+        <v>2.261490495429712</v>
       </c>
       <c r="K21">
-        <v>5.36631080128052</v>
+        <v>3.531262447375838</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.283814648058652</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.413550094345226</v>
       </c>
       <c r="N21">
-        <v>0.4932972661529789</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.5066426303771436</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3277157593343603</v>
+        <v>0.2252116009334699</v>
       </c>
       <c r="D22">
-        <v>0.2017829810639995</v>
+        <v>0.09221961957172908</v>
       </c>
       <c r="E22">
-        <v>0.3007317631006359</v>
+        <v>0.2186939639928696</v>
       </c>
       <c r="F22">
-        <v>6.720292525392495</v>
+        <v>4.730666498223883</v>
       </c>
       <c r="G22">
-        <v>7.730938641609271</v>
+        <v>5.872311001366427</v>
       </c>
       <c r="H22">
-        <v>0.06496879138312472</v>
+        <v>0.04113701573911666</v>
       </c>
       <c r="I22">
-        <v>0.1195099900491901</v>
+        <v>0.07444205575705798</v>
       </c>
       <c r="J22">
-        <v>3.899678558323956</v>
+        <v>2.177493589824962</v>
       </c>
       <c r="K22">
-        <v>5.774473139538827</v>
+        <v>3.722673943955073</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.329478286651906</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.517507006940818</v>
       </c>
       <c r="N22">
-        <v>0.5299912417569175</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.5404356821526477</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3163480886662029</v>
+        <v>0.2174392409127393</v>
       </c>
       <c r="D23">
-        <v>0.1952144378857099</v>
+        <v>0.09235036530186136</v>
       </c>
       <c r="E23">
-        <v>0.2899779178407513</v>
+        <v>0.2111889562325082</v>
       </c>
       <c r="F23">
-        <v>6.474851300876821</v>
+        <v>4.617715827414969</v>
       </c>
       <c r="G23">
-        <v>7.446647900682024</v>
+        <v>5.588796238654368</v>
       </c>
       <c r="H23">
-        <v>0.05912577993356027</v>
+        <v>0.03769289325505909</v>
       </c>
       <c r="I23">
-        <v>0.1096961008105497</v>
+        <v>0.06894635745654121</v>
       </c>
       <c r="J23">
-        <v>3.763365293227366</v>
+        <v>2.266531204838486</v>
       </c>
       <c r="K23">
-        <v>5.569473614186251</v>
+        <v>3.639616751520606</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.31195116453857</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.469576156132959</v>
       </c>
       <c r="N23">
-        <v>0.5101972837735076</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.5224886618843101</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2730989701454405</v>
+        <v>0.1889684259158493</v>
       </c>
       <c r="D24">
-        <v>0.1692425186039657</v>
+        <v>0.0883818566545429</v>
       </c>
       <c r="E24">
-        <v>0.2493031081821151</v>
+        <v>0.1834135064986882</v>
       </c>
       <c r="F24">
-        <v>5.539684439749863</v>
+        <v>4.106158120324949</v>
       </c>
       <c r="G24">
-        <v>6.361005964906497</v>
+        <v>4.627867642516549</v>
       </c>
       <c r="H24">
-        <v>0.03921676803618013</v>
+        <v>0.02557317694244521</v>
       </c>
       <c r="I24">
-        <v>0.07612979451013402</v>
+        <v>0.04963888136978234</v>
       </c>
       <c r="J24">
-        <v>3.24258625152811</v>
+        <v>2.380798482002092</v>
       </c>
       <c r="K24">
-        <v>4.781864388351721</v>
+        <v>3.255026209805209</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.219383229020224</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.262683367142827</v>
       </c>
       <c r="N24">
-        <v>0.4369364743242699</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.453817147876876</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2290144603455246</v>
+        <v>0.1588669834280552</v>
       </c>
       <c r="D25">
-        <v>0.1415156003880185</v>
+        <v>0.0768445450742945</v>
       </c>
       <c r="E25">
-        <v>0.2069670465665432</v>
+        <v>0.1554460755225158</v>
       </c>
       <c r="F25">
-        <v>4.555315805643289</v>
+        <v>3.426297263882958</v>
       </c>
       <c r="G25">
-        <v>5.216943200528476</v>
+        <v>3.819874965422912</v>
       </c>
       <c r="H25">
-        <v>0.02204329108254521</v>
+        <v>0.01448370009831335</v>
       </c>
       <c r="I25">
-        <v>0.04648831163416212</v>
+        <v>0.03132382972901215</v>
       </c>
       <c r="J25">
-        <v>2.694038750707819</v>
+        <v>2.047651843394704</v>
       </c>
       <c r="K25">
-        <v>3.950230390875362</v>
+        <v>2.738993033117652</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.079218043133451</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.006246316360787</v>
       </c>
       <c r="N25">
-        <v>0.3603518069806171</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3777362622262501</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
